--- a/docs/team/team.xlsx
+++ b/docs/team/team.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>신제윤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최주호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기공학과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,6 +464,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
